--- a/ЕСіМ2/Сіденко_М_О_18_05_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_18_05_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" tabRatio="667" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" tabRatio="667" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -2479,7 +2479,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2722,23 +2722,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2772,6 +2757,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,7 +3407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3714,9 +3711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3778,6 +3772,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3796,7 +3798,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3817,44 +3840,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3865,10 +3852,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3877,8 +3861,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3886,11 +3894,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3916,50 +3957,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4021,11 +4023,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4033,11 +4035,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4048,17 +4050,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -11434,7 +11442,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11452,14 +11460,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="136" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11475,7 +11483,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="133"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -11682,7 +11690,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -11712,7 +11720,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -12131,46 +12139,46 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="146" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="172" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="172" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="167" t="s">
+      <c r="K3" s="172" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="141"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -12436,44 +12444,44 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="157" t="s">
+      <c r="E15" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="157" t="s">
+      <c r="F15" s="163" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="H15" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="157" t="s">
+      <c r="I15" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="157" t="s">
+      <c r="J15" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="157" t="s">
+      <c r="K15" s="163" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="157"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="166"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="169"/>
     </row>
     <row r="17" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -12484,37 +12492,37 @@
         <f>'Табл1-1  1-2'!C4</f>
         <v>12</v>
       </c>
-      <c r="C17" s="110" t="str">
+      <c r="C17" s="109" t="str">
         <f>C5</f>
         <v>А</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="109">
         <f>A17</f>
         <v>16</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="109">
         <f>B17</f>
         <v>12</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="109">
         <f>E17/D17</f>
         <v>0.75</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="109">
         <f>D17*(F17-0.25)</f>
         <v>8</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="110">
+      <c r="I17" s="109">
         <f>'Табл1-1  1-2'!F4</f>
         <v>6</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="109">
         <f>4*0.9+4*1.125</f>
         <v>8.1</v>
       </c>
@@ -12532,37 +12540,37 @@
         <f>'Табл1-1  1-2'!C5</f>
         <v>13</v>
       </c>
-      <c r="C18" s="110" t="str">
+      <c r="C18" s="109" t="str">
         <f t="shared" ref="C18:C22" si="5">C6</f>
         <v>Б</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="109">
         <f t="shared" ref="D18:D22" si="6">A18</f>
         <v>20</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <f t="shared" ref="E18:E22" si="7">B18</f>
         <v>13</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="109">
         <f>E18/D18</f>
         <v>0.65</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="109">
         <f>D18*(F18-0.25)</f>
         <v>8</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="109">
         <f>'Табл1-1  1-2'!F5</f>
         <v>10</v>
       </c>
-      <c r="J18" s="110" t="s">
+      <c r="J18" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="109">
         <f>4*0.9+4*1.125</f>
         <v>8.1</v>
       </c>
@@ -12576,15 +12584,15 @@
         <f>'Табл1-1  1-2'!C6</f>
         <v>19</v>
       </c>
-      <c r="C19" s="110" t="str">
+      <c r="C19" s="109" t="str">
         <f t="shared" si="5"/>
         <v>В</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="109">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="109">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -12592,21 +12600,21 @@
         <f t="shared" ref="F19:F22" si="8">E19/D19</f>
         <v>0.54285714285714282</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="109">
         <f t="shared" ref="G19:G22" si="9">D19*(F19-0.25)</f>
         <v>10.249999999999998</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="109">
         <f>'Табл1-1  1-2'!F6</f>
         <v>10</v>
       </c>
-      <c r="J19" s="110" t="s">
+      <c r="J19" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="109">
         <f>4*2.7</f>
         <v>10.8</v>
       </c>
@@ -12620,15 +12628,15 @@
         <f>'Табл1-1  1-2'!C7</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="109" t="str">
         <f t="shared" si="5"/>
         <v>Г</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D20" s="109">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="109">
         <f t="shared" si="7"/>
         <v>15.5</v>
       </c>
@@ -12636,21 +12644,21 @@
         <f t="shared" si="8"/>
         <v>0.484375</v>
       </c>
-      <c r="G20" s="110">
+      <c r="G20" s="109">
         <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="110">
+      <c r="I20" s="109">
         <f>'Табл1-1  1-2'!F7</f>
         <v>10</v>
       </c>
-      <c r="J20" s="110" t="s">
+      <c r="J20" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="109">
         <f>4*1.8</f>
         <v>7.2</v>
       </c>
@@ -12664,15 +12672,15 @@
         <f>'Табл1-1  1-2'!C8</f>
         <v>13.8</v>
       </c>
-      <c r="C21" s="110" t="str">
+      <c r="C21" s="109" t="str">
         <f t="shared" si="5"/>
         <v>Д</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D21" s="109">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="109">
         <f t="shared" si="7"/>
         <v>13.8</v>
       </c>
@@ -12680,21 +12688,21 @@
         <f t="shared" si="8"/>
         <v>0.51111111111111118</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="109">
         <f t="shared" si="9"/>
         <v>7.0500000000000016</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="110">
+      <c r="I21" s="109">
         <f>'Табл1-1  1-2'!F8</f>
         <v>6</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="110">
+      <c r="K21" s="109">
         <f>4*1.8</f>
         <v>7.2</v>
       </c>
@@ -12708,15 +12716,15 @@
         <f>'Табл1-1  1-2'!C9</f>
         <v>17</v>
       </c>
-      <c r="C22" s="110" t="str">
+      <c r="C22" s="109" t="str">
         <f t="shared" si="5"/>
         <v>Е</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="109">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="E22" s="110">
+      <c r="E22" s="109">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
@@ -12724,47 +12732,47 @@
         <f t="shared" si="8"/>
         <v>0.48571428571428571</v>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="109">
         <f t="shared" si="9"/>
         <v>8.25</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="110">
+      <c r="I22" s="109">
         <f>'Табл1-1  1-2'!F9</f>
         <v>6</v>
       </c>
-      <c r="J22" s="110" t="str">
+      <c r="J22" s="109" t="str">
         <f>J17</f>
         <v>4xУК-6-900 4xУК-6-1125</v>
       </c>
-      <c r="K22" s="110">
+      <c r="K22" s="109">
         <f>3*2.7</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="163" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="117">
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="116">
         <f>SUM(G17:G22)</f>
         <v>49.050000000000004</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="I23" s="110" t="s">
+      <c r="I23" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="110" t="s">
+      <c r="J23" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="117">
+      <c r="K23" s="116">
         <f>SUM(K17:K22)</f>
         <v>49.500000000000007</v>
       </c>
@@ -12775,49 +12783,49 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="157" t="s">
+      <c r="D28" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="163" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="157" t="s">
+      <c r="F28" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="H28" s="157" t="s">
+      <c r="H28" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="158" t="str">
+      <c r="I28" s="164" t="str">
         <f>I3</f>
         <v>nт</v>
       </c>
-      <c r="J28" s="158" t="str">
+      <c r="J28" s="164" t="str">
         <f>J3</f>
         <v>Kз</v>
       </c>
-      <c r="K28" s="158" t="str">
+      <c r="K28" s="164" t="str">
         <f>K3</f>
         <v>Kзав</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
     </row>
     <row r="30" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -12828,38 +12836,38 @@
         <f>B5</f>
         <v>103.7</v>
       </c>
-      <c r="C30" s="110" t="str">
+      <c r="C30" s="109" t="str">
         <f>C17</f>
         <v>А</v>
       </c>
-      <c r="D30" s="114" t="str">
+      <c r="D30" s="113" t="str">
         <f>E5</f>
         <v>146.15+103.7i</v>
       </c>
-      <c r="E30" s="114">
+      <c r="E30" s="113">
         <f>K17+K19+K20+K21+K22</f>
         <v>41.4</v>
       </c>
-      <c r="F30" s="114" t="str">
+      <c r="F30" s="113" t="str">
         <f>COMPLEX(A30,B30-E30)</f>
         <v>146.15+62.3i</v>
       </c>
-      <c r="G30" s="114" t="str">
+      <c r="G30" s="113" t="str">
         <f>H17</f>
         <v>АТДЦТН-125000/220/110/35</v>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="113">
         <f>H5</f>
         <v>125</v>
       </c>
-      <c r="I30" s="114">
+      <c r="I30" s="113">
         <v>2</v>
       </c>
-      <c r="J30" s="116">
+      <c r="J30" s="115">
         <f>IMABS(F30)/I30/H30</f>
         <v>0.63549807238102607</v>
       </c>
-      <c r="K30" s="116">
+      <c r="K30" s="115">
         <f>IMABS(D30)/I30/H30</f>
         <v>0.71680973765707168</v>
       </c>
@@ -12873,37 +12881,37 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="C31" s="110" t="str">
+      <c r="C31" s="109" t="str">
         <f t="shared" ref="C31:C35" si="11">C18</f>
         <v>Б</v>
       </c>
-      <c r="D31" s="114" t="str">
+      <c r="D31" s="113" t="str">
         <f t="shared" ref="D31:D35" si="12">E6</f>
         <v>20+13i</v>
       </c>
-      <c r="E31" s="114">
+      <c r="E31" s="113">
         <f>K18</f>
         <v>8.1</v>
       </c>
-      <c r="F31" s="114" t="str">
+      <c r="F31" s="113" t="str">
         <f>COMPLEX(A31,B31-E31)</f>
         <v>20+4.9i</v>
       </c>
-      <c r="G31" s="114" t="s">
+      <c r="G31" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="H31" s="114">
+      <c r="H31" s="113">
         <f>32</f>
         <v>32</v>
       </c>
-      <c r="I31" s="114">
+      <c r="I31" s="113">
         <v>2</v>
       </c>
-      <c r="J31" s="116">
+      <c r="J31" s="115">
         <f>IMABS(F31)/I31/H31</f>
         <v>0.32174223596887308</v>
       </c>
-      <c r="K31" s="116">
+      <c r="K31" s="115">
         <f t="shared" ref="K31:K35" si="13">IMABS(D31)/I31/H31</f>
         <v>0.3727143888086426</v>
       </c>
@@ -12917,38 +12925,38 @@
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="C32" s="110" t="str">
+      <c r="C32" s="109" t="str">
         <f t="shared" si="11"/>
         <v>В</v>
       </c>
-      <c r="D32" s="114" t="str">
+      <c r="D32" s="113" t="str">
         <f t="shared" si="12"/>
         <v>35+19i</v>
       </c>
-      <c r="E32" s="114">
+      <c r="E32" s="113">
         <f t="shared" ref="E32:E35" si="14">K19</f>
         <v>10.8</v>
       </c>
-      <c r="F32" s="114" t="str">
+      <c r="F32" s="113" t="str">
         <f t="shared" ref="F32:F35" si="15">COMPLEX(A32,B32-E32)</f>
         <v>35+8.2i</v>
       </c>
-      <c r="G32" s="114" t="str">
+      <c r="G32" s="113" t="str">
         <f t="shared" ref="G32:G35" si="16">H19</f>
         <v>ТРДН-40000/110/35</v>
       </c>
-      <c r="H32" s="114">
+      <c r="H32" s="113">
         <f t="shared" ref="H32:H35" si="17">H7</f>
         <v>40</v>
       </c>
-      <c r="I32" s="114">
+      <c r="I32" s="113">
         <v>2</v>
       </c>
-      <c r="J32" s="116">
+      <c r="J32" s="115">
         <f t="shared" ref="J32:J35" si="18">IMABS(F32)/I32/H32</f>
         <v>0.44934674806879371</v>
       </c>
-      <c r="K32" s="116">
+      <c r="K32" s="115">
         <f t="shared" si="13"/>
         <v>0.49780769379349693</v>
       </c>
@@ -12962,38 +12970,38 @@
         <f t="shared" si="10"/>
         <v>15.5</v>
       </c>
-      <c r="C33" s="110" t="str">
+      <c r="C33" s="109" t="str">
         <f t="shared" si="11"/>
         <v>Г</v>
       </c>
-      <c r="D33" s="114" t="str">
+      <c r="D33" s="113" t="str">
         <f t="shared" si="12"/>
         <v>32+15.5i</v>
       </c>
-      <c r="E33" s="114">
+      <c r="E33" s="113">
         <f t="shared" si="14"/>
         <v>7.2</v>
       </c>
-      <c r="F33" s="114" t="str">
+      <c r="F33" s="113" t="str">
         <f t="shared" si="15"/>
         <v>32+8.3i</v>
       </c>
-      <c r="G33" s="114" t="str">
+      <c r="G33" s="113" t="str">
         <f t="shared" si="16"/>
         <v>ТРДН-25000/110/35</v>
       </c>
-      <c r="H33" s="114">
+      <c r="H33" s="113">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="I33" s="114">
+      <c r="I33" s="113">
         <v>2</v>
       </c>
-      <c r="J33" s="116">
+      <c r="J33" s="115">
         <f t="shared" si="18"/>
         <v>0.66117773707226424</v>
       </c>
-      <c r="K33" s="116">
+      <c r="K33" s="115">
         <f t="shared" si="13"/>
         <v>0.71112586790244103</v>
       </c>
@@ -13007,38 +13015,38 @@
         <f t="shared" si="10"/>
         <v>13.8</v>
       </c>
-      <c r="C34" s="110" t="str">
+      <c r="C34" s="109" t="str">
         <f t="shared" si="11"/>
         <v>Д</v>
       </c>
-      <c r="D34" s="114" t="str">
+      <c r="D34" s="113" t="str">
         <f t="shared" si="12"/>
         <v>27+13.8i</v>
       </c>
-      <c r="E34" s="114">
+      <c r="E34" s="113">
         <f t="shared" si="14"/>
         <v>7.2</v>
       </c>
-      <c r="F34" s="114" t="str">
+      <c r="F34" s="113" t="str">
         <f t="shared" si="15"/>
         <v>27+6.6i</v>
       </c>
-      <c r="G34" s="114" t="str">
+      <c r="G34" s="113" t="str">
         <f t="shared" si="16"/>
         <v>ТРДН-25000/110/35</v>
       </c>
-      <c r="H34" s="114">
+      <c r="H34" s="113">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="I34" s="114">
+      <c r="I34" s="113">
         <v>2</v>
       </c>
-      <c r="J34" s="116">
+      <c r="J34" s="115">
         <f t="shared" si="18"/>
         <v>0.55589927145122253</v>
       </c>
-      <c r="K34" s="116">
+      <c r="K34" s="115">
         <f t="shared" si="13"/>
         <v>0.60644538088767741</v>
       </c>
@@ -13053,38 +13061,38 @@
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="C35" s="110" t="str">
+      <c r="C35" s="109" t="str">
         <f t="shared" si="11"/>
         <v>Е</v>
       </c>
-      <c r="D35" s="114" t="str">
+      <c r="D35" s="113" t="str">
         <f t="shared" si="12"/>
         <v>35+17i</v>
       </c>
-      <c r="E35" s="114">
+      <c r="E35" s="113">
         <f t="shared" si="14"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="F35" s="114" t="str">
+      <c r="F35" s="113" t="str">
         <f t="shared" si="15"/>
         <v>35+8.9i</v>
       </c>
-      <c r="G35" s="114" t="str">
+      <c r="G35" s="113" t="str">
         <f t="shared" si="16"/>
         <v>ТРДН-40000/110/35</v>
       </c>
-      <c r="H35" s="114">
+      <c r="H35" s="113">
         <f t="shared" si="17"/>
         <v>40</v>
       </c>
-      <c r="I35" s="114">
+      <c r="I35" s="113">
         <v>2</v>
       </c>
-      <c r="J35" s="116">
+      <c r="J35" s="115">
         <f t="shared" si="18"/>
         <v>0.45142309699438288</v>
       </c>
-      <c r="K35" s="116">
+      <c r="K35" s="115">
         <f t="shared" si="13"/>
         <v>0.48637691145859296</v>
       </c>
@@ -13103,178 +13111,204 @@
       <c r="L38" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="157" t="s">
+      <c r="C40" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="169" t="s">
+      <c r="D40" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="169" t="s">
+      <c r="E40" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="169" t="s">
+      <c r="F40" s="170" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169" t="s">
+      <c r="G40" s="170"/>
+      <c r="H40" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="157" t="s">
+      <c r="I40" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
+      <c r="J40" s="163"/>
+      <c r="K40" s="163"/>
     </row>
     <row r="41" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="157" t="s">
+      <c r="C41" s="169"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="157" t="s">
+      <c r="G41" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="169"/>
-      <c r="I41" s="158" t="str">
+      <c r="H41" s="170"/>
+      <c r="I41" s="164" t="str">
         <f>J28</f>
         <v>Kз</v>
       </c>
-      <c r="J41" s="158" t="str">
+      <c r="J41" s="164" t="str">
         <f>K28</f>
         <v>Kзав</v>
       </c>
-      <c r="K41" s="157" t="s">
+      <c r="K41" s="163" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="166"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="157"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="163"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="166"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
     </row>
     <row r="44" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="110" t="s">
+      <c r="C44" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="114" t="str">
+      <c r="D44" s="113" t="str">
         <f>F31</f>
         <v>20+4.9i</v>
       </c>
-      <c r="E44" s="114">
+      <c r="E44" s="113">
         <f>IMABS(D44)</f>
         <v>20.591503102007877</v>
       </c>
-      <c r="F44" s="114">
+      <c r="F44" s="113">
         <f>H31</f>
         <v>32</v>
       </c>
-      <c r="G44" s="114">
+      <c r="G44" s="113">
         <f>16</f>
         <v>16</v>
       </c>
-      <c r="H44" s="114">
+      <c r="H44" s="113">
         <v>2</v>
       </c>
-      <c r="I44" s="114">
+      <c r="I44" s="113">
         <f>E44/H44/F44</f>
         <v>0.32174223596887308</v>
       </c>
-      <c r="J44" s="114">
+      <c r="J44" s="113">
         <f>E44/G44</f>
         <v>1.2869689438754923</v>
       </c>
-      <c r="K44" s="114" t="s">
+      <c r="K44" s="113" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="114" t="str">
+      <c r="D45" s="113" t="str">
         <f>F32</f>
         <v>35+8.2i</v>
       </c>
-      <c r="E45" s="114">
+      <c r="E45" s="113">
         <f>IMABS(D45)</f>
         <v>35.947739845503499</v>
       </c>
-      <c r="F45" s="114">
+      <c r="F45" s="113">
         <f>H32</f>
         <v>40</v>
       </c>
-      <c r="G45" s="114">
+      <c r="G45" s="113">
         <v>25</v>
       </c>
-      <c r="H45" s="114">
+      <c r="H45" s="113">
         <v>2</v>
       </c>
-      <c r="I45" s="114">
+      <c r="I45" s="113">
         <f t="shared" ref="I45:I46" si="19">E45/H45/F45</f>
         <v>0.44934674806879371</v>
       </c>
-      <c r="J45" s="114">
+      <c r="J45" s="113">
         <f t="shared" ref="J45:J46" si="20">E45/G45</f>
         <v>1.4379095938201401</v>
       </c>
-      <c r="K45" s="118" t="s">
+      <c r="K45" s="117" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="114" t="str">
+      <c r="D46" s="113" t="str">
         <f>F33</f>
         <v>32+8.3i</v>
       </c>
-      <c r="E46" s="114">
+      <c r="E46" s="113">
         <f>IMABS(D46)</f>
         <v>33.05888685361321</v>
       </c>
-      <c r="F46" s="114">
+      <c r="F46" s="113">
         <f>H33</f>
         <v>25</v>
       </c>
-      <c r="G46" s="114">
+      <c r="G46" s="113">
         <v>16</v>
       </c>
-      <c r="H46" s="114">
+      <c r="H46" s="113">
         <v>2</v>
       </c>
-      <c r="I46" s="114">
+      <c r="I46" s="113">
         <f t="shared" si="19"/>
         <v>0.66117773707226424</v>
       </c>
-      <c r="J46" s="114">
+      <c r="J46" s="113">
         <f t="shared" si="20"/>
         <v>2.0661804283508256</v>
       </c>
-      <c r="K46" s="111" t="s">
+      <c r="K46" s="110" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:K40"/>
@@ -13286,32 +13320,6 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13367,70 +13375,70 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="188" t="s">
+      <c r="I2" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="190" t="s">
+      <c r="K2" s="183" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="187"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="191"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="176" t="s">
+      <c r="D4" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="178"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="182"/>
-      <c r="C5" s="184"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="41" t="s">
         <v>68</v>
       </c>
@@ -13460,8 +13468,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="182"/>
-      <c r="C6" s="184"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
@@ -13491,22 +13499,22 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="185"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="179" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="181"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="180"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="185"/>
-      <c r="C8" s="184"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="196"/>
       <c r="D8" s="41" t="s">
         <v>73</v>
       </c>
@@ -13536,8 +13544,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="185"/>
-      <c r="C9" s="184"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="41" t="s">
         <v>74</v>
       </c>
@@ -13568,8 +13576,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="185"/>
-      <c r="C10" s="182" t="s">
+      <c r="B10" s="182"/>
+      <c r="C10" s="181" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="53" t="str">
@@ -13602,8 +13610,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="185"/>
-      <c r="C11" s="183"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="53" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -13634,26 +13642,26 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="179" t="s">
+      <c r="D12" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="182"/>
-      <c r="C13" s="184"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="41" t="s">
         <v>80</v>
       </c>
@@ -13683,8 +13691,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="182"/>
-      <c r="C14" s="184"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="196"/>
       <c r="D14" s="41" t="s">
         <v>81</v>
       </c>
@@ -13714,22 +13722,22 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="185"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="179" t="s">
+      <c r="B15" s="182"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="181"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="185"/>
-      <c r="C16" s="184"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="41" t="s">
         <v>79</v>
       </c>
@@ -13759,8 +13767,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="185"/>
-      <c r="C17" s="184"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="196"/>
       <c r="D17" s="41" t="s">
         <v>142</v>
       </c>
@@ -13790,8 +13798,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="185"/>
-      <c r="C18" s="182" t="s">
+      <c r="B18" s="182"/>
+      <c r="C18" s="181" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="52" t="str">
@@ -13824,8 +13832,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="185"/>
-      <c r="C19" s="183"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="52" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
@@ -13856,8 +13864,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="185"/>
-      <c r="C20" s="183"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="195"/>
       <c r="D20" s="52" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
@@ -13889,10 +13897,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="171"/>
+      <c r="C21" s="187"/>
       <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -13924,8 +13932,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="172"/>
-      <c r="C22" s="174"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="190"/>
       <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -13957,8 +13965,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="173"/>
-      <c r="C23" s="175"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -13991,6 +13999,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
@@ -14003,16 +14021,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14117,10 +14125,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="206" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -14142,13 +14150,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="199">
+      <c r="I3" s="202">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="195"/>
-      <c r="C4" s="204"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="207"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -14168,11 +14176,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="188"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="205"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="208"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -14192,11 +14200,11 @@
         <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="200"/>
+      <c r="I5" s="203"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="195"/>
-      <c r="C6" s="206" t="s">
+      <c r="B6" s="198"/>
+      <c r="C6" s="209" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -14218,13 +14226,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="197">
+      <c r="I6" s="200">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="202"/>
-      <c r="C7" s="205"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -14244,13 +14252,13 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="200"/>
+      <c r="I7" s="203"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="209" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -14272,13 +14280,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="208">
+      <c r="I8" s="211">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="195"/>
-      <c r="C9" s="204"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -14298,11 +14306,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="209"/>
+      <c r="I9" s="212"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="195"/>
-      <c r="C10" s="205"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="208"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -14322,11 +14330,11 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="210"/>
+      <c r="I10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="195"/>
-      <c r="C11" s="206" t="s">
+      <c r="B11" s="198"/>
+      <c r="C11" s="209" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -14348,13 +14356,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="208">
+      <c r="I11" s="211">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="195"/>
-      <c r="C12" s="204"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="207"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -14374,11 +14382,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="209"/>
+      <c r="I12" s="212"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="202"/>
-      <c r="C13" s="205"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -14398,13 +14406,13 @@
         <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="210"/>
+      <c r="I13" s="213"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="197"/>
+      <c r="C14" s="200"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -14424,13 +14432,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="208">
+      <c r="I14" s="211">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="195"/>
-      <c r="C15" s="172"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="188"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -14450,11 +14458,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="209"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="196"/>
-      <c r="C16" s="198"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="201"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -14474,7 +14482,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="210"/>
+      <c r="I16" s="213"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14655,68 +14663,68 @@
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="157"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="163"/>
+      <c r="D5" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="157" t="s">
+      <c r="G5" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="157" t="s">
+      <c r="H5" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="K5" s="157" t="s">
+      <c r="K5" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="157" t="s">
+      <c r="L5" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="157" t="s">
+      <c r="M5" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="157" t="s">
+      <c r="N5" s="163" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -14727,10 +14735,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="163" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="75" t="str">
@@ -14784,8 +14792,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="75" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -14835,8 +14843,8 @@
         <f>-Потокорозподіл!F7</f>
         <v>4.625</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="212"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="215"/>
       <c r="E10" s="75" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -14878,16 +14886,16 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
       <c r="M11" s="76">
         <f>SUM(M8:M10)</f>
         <v>0.24</v>
@@ -14906,8 +14914,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="155" t="s">
+      <c r="C12" s="214"/>
+      <c r="D12" s="160" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="75" t="str">
@@ -14958,8 +14966,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="75" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -15000,16 +15008,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="212"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
       <c r="M14" s="76">
         <f>SUM(M12:M13)</f>
         <v>0.26300000000000001</v>
@@ -15028,10 +15036,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="163" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="75" t="str">
@@ -15081,8 +15089,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="75" t="str">
         <f>Потокорозподіл!C12</f>
         <v>ВП-Е</v>
@@ -15131,8 +15139,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="75" t="str">
         <f>Потокорозподіл!C13</f>
         <v>Е-Г</v>
@@ -15173,8 +15181,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="78"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
@@ -15201,8 +15209,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157" t="s">
+      <c r="C19" s="163"/>
+      <c r="D19" s="163" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="75" t="str">
@@ -15252,8 +15260,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="212"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="75" t="str">
         <f>Потокорозподіл!C15</f>
         <v>Г-2</v>
@@ -15301,8 +15309,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="212"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="75" t="str">
         <f>Потокорозподіл!C16</f>
         <v>Е-2</v>
@@ -15342,16 +15350,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="157"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="212"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
       <c r="M22" s="76">
         <f>SUM(M19:M21)</f>
         <v>0.34399999999999997</v>
@@ -15378,15 +15386,6 @@
     <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
@@ -15399,6 +15398,15 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15632,67 +15640,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="160" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="155" t="s">
+      <c r="K2" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="160" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="3:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="211"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="211"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="214"/>
     </row>
     <row r="4" spans="3:53" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="156"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="156"/>
-      <c r="O4" s="139" t="s">
+      <c r="C4" s="168"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="168"/>
+      <c r="O4" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="139" t="s">
+      <c r="P4" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="139" t="s">
+      <c r="Q4" s="146" t="s">
         <v>229</v>
       </c>
       <c r="R4" s="70" t="s">
@@ -15704,7 +15712,7 @@
       <c r="T4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="139" t="s">
+      <c r="U4" s="146" t="s">
         <v>232</v>
       </c>
       <c r="V4" s="70" t="s">
@@ -15716,37 +15724,37 @@
       <c r="X4" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="AA4" s="155" t="s">
+      <c r="AA4" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="155" t="s">
+      <c r="AB4" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="155" t="s">
+      <c r="AC4" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="AD4" s="155" t="s">
+      <c r="AD4" s="160" t="s">
         <v>243</v>
       </c>
-      <c r="AE4" s="155" t="s">
+      <c r="AE4" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="AF4" s="155" t="s">
+      <c r="AF4" s="160" t="s">
         <v>245</v>
       </c>
-      <c r="AG4" s="155" t="s">
+      <c r="AG4" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="AH4" s="155" t="s">
+      <c r="AH4" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="AI4" s="155" t="s">
+      <c r="AI4" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="AK4" s="155" t="s">
+      <c r="AK4" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" s="155" t="s">
+      <c r="AL4" s="160" t="s">
         <v>106</v>
       </c>
       <c r="AM4" s="80" t="s">
@@ -15796,7 +15804,7 @@
       <c r="C5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="155" t="str">
+      <c r="D5" s="160" t="str">
         <f>'Таблиця 1-4'!C3</f>
         <v>а</v>
       </c>
@@ -15830,9 +15838,9 @@
         <f>J5*F5*K5</f>
         <v>195.88000000000002</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
       <c r="R5" s="44" t="s">
         <v>234</v>
       </c>
@@ -15842,7 +15850,7 @@
       <c r="T5" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="U5" s="140"/>
+      <c r="U5" s="150"/>
       <c r="V5" s="44" t="s">
         <v>234</v>
       </c>
@@ -15852,17 +15860,17 @@
       <c r="X5" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="218"/>
-      <c r="AD5" s="218"/>
-      <c r="AE5" s="211"/>
-      <c r="AF5" s="218"/>
-      <c r="AG5" s="218"/>
-      <c r="AH5" s="211"/>
-      <c r="AI5" s="211"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="214"/>
+      <c r="AI5" s="214"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
       <c r="AM5" s="80" t="s">
         <v>249</v>
       </c>
@@ -15908,7 +15916,7 @@
     </row>
     <row r="6" spans="3:53" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="81"/>
-      <c r="D6" s="211"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="80" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -15939,29 +15947,29 @@
         <f>J6*F6*K6</f>
         <v>149.76</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
       <c r="R6" s="73"/>
       <c r="S6" s="33" t="s">
         <v>237</v>
       </c>
       <c r="T6" s="73"/>
-      <c r="U6" s="141"/>
+      <c r="U6" s="151"/>
       <c r="V6" s="73"/>
       <c r="W6" s="73"/>
       <c r="X6" s="73"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="219"/>
-      <c r="AD6" s="219"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="219"/>
-      <c r="AG6" s="219"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="156"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="168"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="168"/>
+      <c r="AI6" s="168"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
       <c r="AM6" s="82"/>
       <c r="AN6" s="82"/>
       <c r="AO6" s="82"/>
@@ -15990,10 +15998,10 @@
       <c r="BA6" s="82"/>
     </row>
     <row r="7" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="211"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="80" t="str">
         <f>Fрозр!E4</f>
         <v>ВП-В</v>
@@ -16023,7 +16031,7 @@
         <f>J7*F7*K7</f>
         <v>195.88000000000002</v>
       </c>
-      <c r="O7" s="214" t="s">
+      <c r="O7" s="221" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="33" t="s">
@@ -16055,7 +16063,7 @@
         <f>V7*W7</f>
         <v>240</v>
       </c>
-      <c r="AA7" s="155" t="s">
+      <c r="AA7" s="160" t="s">
         <v>19</v>
       </c>
       <c r="AB7" s="80" t="s">
@@ -16065,7 +16073,7 @@
         <f>L10</f>
         <v>422.26</v>
       </c>
-      <c r="AD7" s="155">
+      <c r="AD7" s="160">
         <v>7.2</v>
       </c>
       <c r="AE7" s="80">
@@ -16076,7 +16084,7 @@
         <f>T7+X7</f>
         <v>310.39999999999998</v>
       </c>
-      <c r="AG7" s="155">
+      <c r="AG7" s="160">
         <v>14.4</v>
       </c>
       <c r="AH7" s="80">
@@ -16087,7 +16095,7 @@
         <f>AE7+AH7</f>
         <v>75.099999999999994</v>
       </c>
-      <c r="AK7" s="155" t="s">
+      <c r="AK7" s="160" t="s">
         <v>19</v>
       </c>
       <c r="AL7" s="80" t="s">
@@ -16110,7 +16118,7 @@
         <f>ROUND(1.68*AM7,1)</f>
         <v>2456.6999999999998</v>
       </c>
-      <c r="AS7" s="155" t="s">
+      <c r="AS7" s="160" t="s">
         <v>19</v>
       </c>
       <c r="AT7" s="80" t="str">
@@ -16141,9 +16149,9 @@
       <c r="BA7" s="58"/>
     </row>
     <row r="8" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="121" t="str">
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="120" t="str">
         <f>Fрозр!E5</f>
         <v>ВП-Д</v>
       </c>
@@ -16168,11 +16176,11 @@
       <c r="K8" s="80">
         <v>1</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="124">
         <f t="shared" ref="L8:L9" si="0">J8*F8*K8</f>
         <v>147.41999999999999</v>
       </c>
-      <c r="O8" s="215"/>
+      <c r="O8" s="222"/>
       <c r="P8" s="33" t="s">
         <v>55</v>
       </c>
@@ -16203,7 +16211,7 @@
         <f>V8*W8</f>
         <v>144</v>
       </c>
-      <c r="AA8" s="163"/>
+      <c r="AA8" s="166"/>
       <c r="AB8" s="80" t="s">
         <v>55</v>
       </c>
@@ -16211,7 +16219,7 @@
         <f>L13</f>
         <v>416.88</v>
       </c>
-      <c r="AD8" s="163"/>
+      <c r="AD8" s="166"/>
       <c r="AE8" s="80">
         <f>ROUND($AD$7/100*AC8,2)</f>
         <v>30.02</v>
@@ -16220,7 +16228,7 @@
         <f t="shared" ref="AF8:AF10" si="1">T8+X8</f>
         <v>214.4</v>
       </c>
-      <c r="AG8" s="163"/>
+      <c r="AG8" s="166"/>
       <c r="AH8" s="80">
         <f t="shared" ref="AH8:AH10" si="2">ROUND($AE$8/100*AF8,2)</f>
         <v>64.36</v>
@@ -16229,7 +16237,7 @@
         <f t="shared" ref="AI8:AI10" si="3">AE8+AH8</f>
         <v>94.38</v>
       </c>
-      <c r="AK8" s="163"/>
+      <c r="AK8" s="166"/>
       <c r="AL8" s="80" t="s">
         <v>55</v>
       </c>
@@ -16250,12 +16258,12 @@
         <f>ROUND(1.68*AM8,1)</f>
         <v>2692.1</v>
       </c>
-      <c r="AS8" s="163"/>
+      <c r="AS8" s="166"/>
       <c r="AT8" s="80" t="str">
         <f>AL8</f>
         <v>д)</v>
       </c>
-      <c r="AU8" s="125">
+      <c r="AU8" s="124">
         <f t="shared" ref="AU8:AU10" si="4">AC8+AF8</f>
         <v>631.28</v>
       </c>
@@ -16271,7 +16279,7 @@
         <f t="shared" ref="AX8:AX10" si="7">AV8+AW8</f>
         <v>2786.48</v>
       </c>
-      <c r="AY8" s="124">
+      <c r="AY8" s="123">
         <f>0.2*AU8+AX8</f>
         <v>2912.7359999999999</v>
       </c>
@@ -16285,9 +16293,9 @@
       </c>
     </row>
     <row r="9" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="211"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="121" t="str">
+      <c r="C9" s="214"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="120" t="str">
         <f>Fрозр!E6</f>
         <v>В-Д</v>
       </c>
@@ -16312,11 +16320,11 @@
       <c r="K9" s="80">
         <v>1</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="124">
         <f t="shared" si="0"/>
         <v>78.959999999999994</v>
       </c>
-      <c r="O9" s="214" t="s">
+      <c r="O9" s="221" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="33" t="s">
@@ -16348,7 +16356,7 @@
         <f>V9*W9</f>
         <v>240</v>
       </c>
-      <c r="AA9" s="155" t="s">
+      <c r="AA9" s="160" t="s">
         <v>241</v>
       </c>
       <c r="AB9" s="80" t="s">
@@ -16358,7 +16366,7 @@
         <f>L17</f>
         <v>431.46</v>
       </c>
-      <c r="AD9" s="155">
+      <c r="AD9" s="160">
         <v>7.2</v>
       </c>
       <c r="AE9" s="80">
@@ -16369,7 +16377,7 @@
         <f t="shared" si="1"/>
         <v>310.39999999999998</v>
       </c>
-      <c r="AG9" s="155">
+      <c r="AG9" s="160">
         <v>14.4</v>
       </c>
       <c r="AH9" s="80">
@@ -16380,7 +16388,7 @@
         <f t="shared" si="3"/>
         <v>139.35000000000002</v>
       </c>
-      <c r="AK9" s="155" t="s">
+      <c r="AK9" s="160" t="s">
         <v>20</v>
       </c>
       <c r="AL9" s="80" t="s">
@@ -16403,14 +16411,14 @@
         <f>ROUND(1.68*AM9,1)</f>
         <v>3060.6</v>
       </c>
-      <c r="AS9" s="155" t="s">
+      <c r="AS9" s="160" t="s">
         <v>20</v>
       </c>
       <c r="AT9" s="80" t="str">
         <f>AL9</f>
         <v>а)</v>
       </c>
-      <c r="AU9" s="125">
+      <c r="AU9" s="124">
         <f t="shared" si="4"/>
         <v>741.8599999999999</v>
       </c>
@@ -16434,20 +16442,20 @@
       <c r="BA9" s="58"/>
     </row>
     <row r="10" spans="3:53" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="211"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="217"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
       <c r="L10" s="80">
         <f>SUM(L7:L9)</f>
         <v>422.26</v>
       </c>
-      <c r="O10" s="215"/>
+      <c r="O10" s="222"/>
       <c r="P10" s="33" t="s">
         <v>54</v>
       </c>
@@ -16478,7 +16486,7 @@
         <f>V10*W10</f>
         <v>144</v>
       </c>
-      <c r="AA10" s="163"/>
+      <c r="AA10" s="166"/>
       <c r="AB10" s="80" t="s">
         <v>54</v>
       </c>
@@ -16486,7 +16494,7 @@
         <f>L21</f>
         <v>641.22</v>
       </c>
-      <c r="AD10" s="163"/>
+      <c r="AD10" s="166"/>
       <c r="AE10" s="80">
         <f>ROUND($AD$9/100*AC10,2)</f>
         <v>46.17</v>
@@ -16495,7 +16503,7 @@
         <f t="shared" si="1"/>
         <v>214.4</v>
       </c>
-      <c r="AG10" s="163"/>
+      <c r="AG10" s="166"/>
       <c r="AH10" s="80">
         <f t="shared" si="2"/>
         <v>64.36</v>
@@ -16504,7 +16512,7 @@
         <f t="shared" si="3"/>
         <v>110.53</v>
       </c>
-      <c r="AK10" s="156"/>
+      <c r="AK10" s="168"/>
       <c r="AL10" s="80" t="s">
         <v>54</v>
       </c>
@@ -16525,12 +16533,12 @@
         <f>ROUND(1.68*AM10,1)</f>
         <v>3521.3</v>
       </c>
-      <c r="AS10" s="156"/>
+      <c r="AS10" s="168"/>
       <c r="AT10" s="80" t="str">
         <f>AL10</f>
         <v>г)</v>
       </c>
-      <c r="AU10" s="125">
+      <c r="AU10" s="124">
         <f t="shared" si="4"/>
         <v>855.62</v>
       </c>
@@ -16560,8 +16568,8 @@
       </c>
     </row>
     <row r="11" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="211"/>
-      <c r="D11" s="155" t="s">
+      <c r="C11" s="214"/>
+      <c r="D11" s="160" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="80" t="str">
@@ -16595,9 +16603,9 @@
       </c>
     </row>
     <row r="12" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="211"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="121" t="str">
+      <c r="C12" s="214"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="120" t="str">
         <f>'падіння напруги'!E14</f>
         <v>ВП-Д</v>
       </c>
@@ -16609,7 +16617,7 @@
         <f>Fрозр!H9</f>
         <v>110</v>
       </c>
-      <c r="H12" s="121" t="str">
+      <c r="H12" s="120" t="str">
         <f>'падіння напруги'!F14</f>
         <v>АС-240/56</v>
       </c>
@@ -16622,31 +16630,31 @@
       <c r="K12" s="80">
         <v>2</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="124">
         <f>J12*F12*K12</f>
         <v>258.96000000000004</v>
       </c>
     </row>
     <row r="13" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="156"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="217"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
       <c r="L13" s="80">
         <f>SUM(L11:L12)</f>
         <v>416.88</v>
       </c>
     </row>
     <row r="14" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="157" t="s">
+      <c r="D14" s="163" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="80" t="str">
@@ -16680,8 +16688,8 @@
       </c>
     </row>
     <row r="15" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="80" t="str">
         <f>'падіння напруги'!E17</f>
         <v>ВП-Е</v>
@@ -16707,14 +16715,14 @@
       <c r="K15" s="80">
         <v>1</v>
       </c>
-      <c r="L15" s="125">
+      <c r="L15" s="124">
         <f t="shared" ref="L15:L16" si="9">J15*F15*K15</f>
         <v>129.48000000000002</v>
       </c>
     </row>
     <row r="16" spans="3:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="80" t="str">
         <f>'падіння напруги'!E18</f>
         <v>Е-Г</v>
@@ -16740,29 +16748,29 @@
       <c r="K16" s="80">
         <v>1</v>
       </c>
-      <c r="L16" s="125">
+      <c r="L16" s="124">
         <f t="shared" si="9"/>
         <v>78.959999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="166"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="80">
         <f>SUM(L14:L16)</f>
         <v>431.46</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="166"/>
-      <c r="D18" s="157" t="s">
+      <c r="C18" s="169"/>
+      <c r="D18" s="163" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="80" t="str">
@@ -16795,20 +16803,20 @@
       </c>
     </row>
     <row r="19" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="121" t="str">
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="120" t="str">
         <f>'падіння напруги'!E25</f>
         <v>Г-2</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="120">
         <f>'падіння напруги'!G25</f>
         <v>7.2</v>
       </c>
       <c r="G19" s="80">
         <v>110</v>
       </c>
-      <c r="H19" s="121" t="str">
+      <c r="H19" s="120" t="str">
         <f>'падіння напруги'!F25</f>
         <v>АС-150/34</v>
       </c>
@@ -16821,26 +16829,26 @@
       <c r="K19" s="80">
         <v>2</v>
       </c>
-      <c r="L19" s="125">
+      <c r="L19" s="124">
         <f t="shared" ref="L19:L20" si="10">J19*F19*K19</f>
         <v>203.04</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="121" t="str">
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="120" t="str">
         <f>'падіння напруги'!E26</f>
         <v>Е-2</v>
       </c>
-      <c r="F20" s="121">
+      <c r="F20" s="120">
         <f>'падіння напруги'!G26</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="G20" s="80">
         <v>110</v>
       </c>
-      <c r="H20" s="121" t="str">
+      <c r="H20" s="120" t="str">
         <f>'падіння напруги'!F26</f>
         <v>АС-150/34</v>
       </c>
@@ -16853,21 +16861,21 @@
       <c r="K20" s="80">
         <v>2</v>
       </c>
-      <c r="L20" s="125">
+      <c r="L20" s="124">
         <f t="shared" si="10"/>
         <v>234.06</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="166"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169"/>
       <c r="L21" s="80">
         <f>SUM(L18:L20)</f>
         <v>641.22</v>
@@ -16877,32 +16885,12 @@
     <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="J2:J4"/>
@@ -16918,12 +16906,32 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AK4:AK6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17364,7 +17372,7 @@
   <dimension ref="A2:W35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17388,20 +17396,20 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="146" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="167"/>
+      <c r="E3" s="172"/>
       <c r="F3" s="70" t="s">
         <v>230</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="167"/>
+      <c r="H3" s="172"/>
       <c r="I3" s="70" t="s">
         <v>230</v>
       </c>
@@ -17411,13 +17419,13 @@
       <c r="L3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="163" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="158"/>
+      <c r="O3" s="164"/>
       <c r="P3" s="84" t="s">
         <v>230</v>
       </c>
@@ -17438,16 +17446,16 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="168"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="33" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="168"/>
+      <c r="H4" s="173"/>
       <c r="I4" s="33" t="s">
         <v>2</v>
       </c>
@@ -17457,11 +17465,11 @@
       <c r="L4" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="M4" s="157"/>
+      <c r="M4" s="163"/>
       <c r="N4" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="158"/>
+      <c r="O4" s="164"/>
       <c r="P4" s="84" t="s">
         <v>269</v>
       </c>
@@ -17510,7 +17518,7 @@
         <f>'Таблиця 1-4'!D3</f>
         <v>ВП-В</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="113" t="s">
         <v>125</v>
       </c>
       <c r="N5" s="84">
@@ -17587,7 +17595,7 @@
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="113" t="s">
         <v>126</v>
       </c>
       <c r="N6" s="84">
@@ -17660,7 +17668,7 @@
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="113" t="s">
         <v>109</v>
       </c>
       <c r="N7" s="84">
@@ -17731,7 +17739,7 @@
         <f>'Таблиця 1-4'!D8</f>
         <v>ВП-Г</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="113" t="s">
         <v>126</v>
       </c>
       <c r="N8" s="84">
@@ -17803,7 +17811,7 @@
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
-      <c r="M9" s="114" t="s">
+      <c r="M9" s="113" t="s">
         <v>125</v>
       </c>
       <c r="N9" s="84">
@@ -17875,7 +17883,7 @@
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="113" t="s">
         <v>109</v>
       </c>
       <c r="N10" s="84">
@@ -17915,7 +17923,7 @@
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="113" t="s">
         <v>135</v>
       </c>
       <c r="N11" s="84">
@@ -17950,7 +17958,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="146" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -17974,14 +17982,14 @@
       <c r="J12" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="113" t="s">
+      <c r="K12" s="112" t="s">
         <v>230</v>
       </c>
       <c r="L12" s="84" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="113" t="s">
         <v>126</v>
       </c>
       <c r="N12" s="84">
@@ -18017,7 +18025,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="141"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="33" t="s">
         <v>265</v>
       </c>
@@ -18039,14 +18047,14 @@
       <c r="J13" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="112" t="s">
+      <c r="K13" s="111" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="84" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="113" t="s">
         <v>125</v>
       </c>
       <c r="N13" s="84">
@@ -18306,16 +18314,16 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="157" t="s">
+      <c r="C26" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="163" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="158"/>
+      <c r="F26" s="164"/>
       <c r="G26" s="84" t="s">
         <v>230</v>
       </c>
@@ -18333,12 +18341,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
       <c r="E27" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="164"/>
       <c r="G27" s="84" t="s">
         <v>2</v>
       </c>
@@ -18526,7 +18534,7 @@
         <f>0.5*(F34+G34-H34)</f>
         <v>11.5</v>
       </c>
-      <c r="J34" s="119">
+      <c r="J34" s="118">
         <v>0</v>
       </c>
       <c r="K34" s="84">
@@ -18537,7 +18545,7 @@
         <f>ROUND(I34/100/F29*A29^2/E29,2)</f>
         <v>24.33</v>
       </c>
-      <c r="M34" s="120">
+      <c r="M34" s="119">
         <f>J34</f>
         <v>0</v>
       </c>
@@ -18547,7 +18555,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="J35" s="115">
+      <c r="J35" s="114">
         <f>0.5*(G34+H34-F34)</f>
         <v>-0.5</v>
       </c>
@@ -19673,7 +19681,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="223" t="s">
         <v>173</v>
       </c>
       <c r="H2" s="88" t="s">
@@ -19696,7 +19704,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G3" s="221"/>
+      <c r="G3" s="224"/>
       <c r="H3" s="90" t="s">
         <v>276</v>
       </c>
@@ -19720,7 +19728,7 @@
       <c r="D4" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="222"/>
+      <c r="G4" s="225"/>
       <c r="H4" s="91">
         <v>1</v>
       </c>
@@ -20466,8 +20474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20484,10 +20492,10 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="146" t="s">
         <v>283</v>
       </c>
       <c r="J3" s="96" t="s">
@@ -20507,8 +20515,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
       <c r="J4" s="33" t="s">
         <v>97</v>
       </c>
@@ -21161,7 +21169,7 @@
       <c r="G16">
         <v>220</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="125" t="s">
         <v>94</v>
       </c>
       <c r="I16" s="33">
@@ -21189,11 +21197,11 @@
       </c>
     </row>
     <row r="17" spans="8:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M17" s="127">
+      <c r="M17" s="126">
         <f>'Табл1-1  1-2'!B11</f>
         <v>165</v>
       </c>
-      <c r="N17" s="127">
+      <c r="N17" s="126">
         <f>'Табл1-1  1-2'!C11</f>
         <v>90.3</v>
       </c>
@@ -21252,45 +21260,45 @@
       </c>
     </row>
     <row r="24" spans="8:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="129"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="128"/>
     </row>
     <row r="25" spans="8:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="127"/>
     </row>
     <row r="26" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
     </row>
     <row r="27" spans="8:15" x14ac:dyDescent="0.25">
       <c r="O27" s="104"/>
     </row>
     <row r="29" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="121"/>
       <c r="O29" s="15"/>
     </row>
     <row r="30" spans="8:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="123" t="s">
+      <c r="H30" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="I30" s="123"/>
+      <c r="I30" s="122"/>
       <c r="M30" s="33" t="str">
         <f>IMPRODUCT(IMDIV(IMPRODUCT(K5,K5),G5^2),L5)</f>
         <v>-0.122169332763637+0.311776703368595i</v>
       </c>
     </row>
     <row r="31" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21435,12 +21443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
@@ -21456,13 +21465,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="146" t="s">
         <v>297</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="146" t="s">
         <v>221</v>
       </c>
       <c r="J3" s="70" t="s">
@@ -21477,7 +21486,7 @@
       <c r="M3" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="N3" s="139" t="s">
+      <c r="N3" s="146" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="70" t="s">
@@ -21485,11 +21494,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="141"/>
+      <c r="G4" s="151"/>
       <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="151"/>
       <c r="J4" s="33" t="s">
         <v>294</v>
       </c>
@@ -21500,13 +21509,13 @@
         <v>9</v>
       </c>
       <c r="M4" s="33"/>
-      <c r="N4" s="141"/>
+      <c r="N4" s="151"/>
       <c r="O4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="97">
+      <c r="A5" s="227">
         <f>IMREAL(J5)</f>
         <v>179.76400000000001</v>
       </c>
@@ -21553,17 +21562,17 @@
         <v>3</v>
       </c>
       <c r="O5" s="83">
-        <f>ROUND(SQRT((H5-L5)^2+M5^2),2)</f>
+        <f t="shared" ref="O5:O11" si="0">ROUND(SQRT((H5-L5)^2+M5^2),2)</f>
         <v>240.67</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97">
+      <c r="A6" s="227">
         <f>IMREAL(J6)</f>
         <v>18.762</v>
       </c>
       <c r="B6" s="97">
-        <f t="shared" ref="B6:B15" si="0">IMAGINARY(J6)</f>
+        <f t="shared" ref="B6:B16" si="1">IMAGINARY(J6)</f>
         <v>6.0650000000000004</v>
       </c>
       <c r="C6" s="97">
@@ -21571,17 +21580,17 @@
         <v>0.13</v>
       </c>
       <c r="D6" s="97">
-        <f t="shared" ref="D6:D15" si="1">IMAGINARY(K6)</f>
+        <f t="shared" ref="D6:D16" si="2">IMAGINARY(K6)</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="G6" s="83">
         <v>3</v>
       </c>
-      <c r="H6" s="131">
+      <c r="H6" s="130">
         <f>O5</f>
         <v>240.67</v>
       </c>
-      <c r="I6" s="132" t="str">
+      <c r="I6" s="131" t="str">
         <f>'Tabl 2-5'!H15</f>
         <v>3-Б</v>
       </c>
@@ -21598,39 +21607,38 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="M6" s="83">
-        <f t="shared" ref="M6:M15" si="2">ROUND((A6*D6-B6*C6)/H6,3)</f>
+        <f t="shared" ref="M6:M15" si="3">ROUND((A6*D6-B6*C6)/H6,3)</f>
         <v>0.17799999999999999</v>
       </c>
       <c r="N6" s="83" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="83">
-        <f>ROUND(SQRT((H6-L6)^2+M6^2),2)</f>
+        <f t="shared" si="0"/>
         <v>240.6</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97">
-        <f t="shared" ref="A7:A15" si="3">IMREAL(J7)</f>
+      <c r="A7" s="227">
+        <f t="shared" ref="A7:A16" si="4">IMREAL(J7)</f>
         <v>148.20400000000001</v>
       </c>
       <c r="B7" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.72</v>
       </c>
       <c r="C7" s="97">
-        <f t="shared" ref="C7:C15" si="4">IMREAL(K7)</f>
+        <f t="shared" ref="C7:C16" si="5">IMREAL(K7)</f>
         <v>0.38</v>
       </c>
       <c r="D7" s="97">
         <f>IMAGINARY(K7)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="G7" s="83" t="str">
-        <f>'Tabl 2-5'!H14</f>
-        <v>3-А(ШВН)</v>
-      </c>
-      <c r="H7" s="131">
+      <c r="G7" s="83">
+        <v>3</v>
+      </c>
+      <c r="H7" s="130">
         <f>O6</f>
         <v>240.6</v>
       </c>
@@ -21647,36 +21655,36 @@
         <v>0.38+4.85i</v>
       </c>
       <c r="L7" s="83">
-        <f t="shared" ref="L7:L15" si="5">ROUND((A7*C7+B7*D7)/H7,3)</f>
+        <f t="shared" ref="L7:L15" si="6">ROUND((A7*C7+B7*D7)/H7,3)</f>
         <v>1.5189999999999999</v>
       </c>
       <c r="M7" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.887</v>
       </c>
       <c r="N7" s="83" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="83">
-        <f>ROUND(SQRT((H7-L7)^2+M7^2),2)</f>
+        <f t="shared" si="0"/>
         <v>239.1</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97">
-        <f t="shared" si="3"/>
+      <c r="A8" s="227">
+        <f t="shared" si="4"/>
         <v>147.87299999999999</v>
       </c>
       <c r="B8" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.04</v>
       </c>
-      <c r="C8" s="97">
-        <f t="shared" si="4"/>
+      <c r="C8" s="227">
+        <f t="shared" si="5"/>
         <v>0.26661600000000002</v>
       </c>
       <c r="D8" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.33</v>
       </c>
       <c r="G8" s="83" t="s">
@@ -21699,39 +21707,36 @@
         <v>0.266616+24.33i</v>
       </c>
       <c r="L8" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.58</v>
       </c>
       <c r="M8" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.977</v>
       </c>
       <c r="N8" s="83">
         <v>0</v>
       </c>
-      <c r="O8" s="109">
-        <f>ROUND(SQRT((H8-L8)^2+M8^2),2)</f>
+      <c r="O8" s="132">
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="P8" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97">
-        <f t="shared" si="3"/>
+      <c r="A9" s="227">
+        <f t="shared" si="4"/>
         <v>16.003</v>
       </c>
-      <c r="B9" s="97">
-        <f t="shared" si="0"/>
+      <c r="B9" s="227">
+        <f t="shared" si="1"/>
         <v>4.1429999999999998</v>
       </c>
-      <c r="C9" s="97">
-        <f t="shared" si="4"/>
+      <c r="C9" s="227">
+        <f t="shared" si="5"/>
         <v>0.56789208000000002</v>
       </c>
       <c r="D9" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.38</v>
       </c>
       <c r="G9" s="83">
@@ -21739,8 +21744,8 @@
         <v>0</v>
       </c>
       <c r="H9" s="83">
-        <f>O7</f>
-        <v>239.1</v>
+        <f>O8</f>
+        <v>233</v>
       </c>
       <c r="I9" s="83" t="str">
         <f>'Tabl 2-5'!H12</f>
@@ -21750,53 +21755,53 @@
         <f>'Tabl 2-5'!N12</f>
         <v>16.003+4.143i</v>
       </c>
-      <c r="K9" s="132" t="str">
+      <c r="K9" s="131" t="str">
         <f>'Tabl 2-5'!L12</f>
         <v>0.56789208+43.38i</v>
       </c>
       <c r="L9" s="83">
-        <f t="shared" si="5"/>
-        <v>0.79</v>
+        <f t="shared" si="6"/>
+        <v>0.81</v>
       </c>
       <c r="M9" s="83">
-        <f t="shared" si="2"/>
-        <v>2.8940000000000001</v>
+        <f t="shared" si="3"/>
+        <v>2.9689999999999999</v>
       </c>
       <c r="N9" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="O9" s="109">
-        <f>ROUND(SQRT((H9-L9)^2+M9^2),2)</f>
-        <v>238.33</v>
+      <c r="O9" s="132">
+        <f t="shared" si="0"/>
+        <v>232.21</v>
       </c>
       <c r="P9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97">
-        <f t="shared" si="3"/>
+      <c r="A10" s="227">
+        <f t="shared" si="4"/>
         <v>131.73599999999999</v>
       </c>
-      <c r="B10" s="97">
-        <f t="shared" si="0"/>
+      <c r="B10" s="227">
+        <f t="shared" si="1"/>
         <v>46.628999999999998</v>
       </c>
-      <c r="C10" s="97">
-        <f t="shared" si="4"/>
+      <c r="C10" s="227">
+        <f t="shared" si="5"/>
         <v>0.56789208000000002</v>
       </c>
       <c r="D10" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="131">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H10" s="132">
-        <f>O9</f>
-        <v>238.33</v>
+      <c r="H10" s="131">
+        <f>O8</f>
+        <v>233</v>
       </c>
       <c r="I10" s="83" t="str">
         <f>'Tabl 2-5'!H11</f>
@@ -21806,334 +21811,353 @@
         <f>'Tabl 2-5'!N11</f>
         <v>131.736+46.629i</v>
       </c>
-      <c r="K10" s="132" t="str">
+      <c r="K10" s="131" t="str">
         <f>'Tabl 2-5'!L11</f>
         <v>0.56789208</v>
       </c>
       <c r="L10" s="83">
         <f>ROUND((A10*C10+B10*D10)/H10,3)</f>
-        <v>0.314</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="M10" s="83">
         <f>ROUND((A10*D10-B10*C10)/H10,3)</f>
-        <v>-0.111</v>
+        <v>-0.114</v>
       </c>
       <c r="N10" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O10" s="132">
-        <f>ROUND(SQRT((H10-L10)^2+M10^2),2)</f>
-        <v>238.02</v>
+      <c r="O10" s="131">
+        <f t="shared" si="0"/>
+        <v>232.68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97">
-        <f t="shared" si="3"/>
+      <c r="A11" s="227">
+        <f t="shared" si="4"/>
         <v>34.514000000000003</v>
       </c>
-      <c r="B11" s="97">
-        <f t="shared" si="0"/>
+      <c r="B11" s="227">
+        <f t="shared" si="1"/>
         <v>13.829000000000001</v>
       </c>
       <c r="C11" s="97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33</v>
       </c>
       <c r="D11" s="97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.97</v>
       </c>
-      <c r="G11" s="223" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="223">
-        <f>O10</f>
-        <v>238.02</v>
-      </c>
-      <c r="I11" s="223" t="str">
+      <c r="G11" s="228" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="230">
+        <f>S25</f>
+        <v>115.96124638877424</v>
+      </c>
+      <c r="I11" s="228" t="str">
         <f>'Tabl 2-5'!H10</f>
         <v>ВП1-Г</v>
       </c>
-      <c r="J11" s="223" t="str">
+      <c r="J11" s="228" t="str">
         <f>'Tabl 2-5'!N10</f>
         <v>34.514+13.829i</v>
       </c>
-      <c r="K11" s="223" t="str">
+      <c r="K11" s="228" t="str">
         <f>'Tabl 2-5'!L10</f>
         <v>0.33+3.97i</v>
       </c>
-      <c r="L11" s="223">
+      <c r="L11" s="228">
+        <f>ROUND((A11*C11+B11*D11)/H11,3)</f>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="M11" s="228">
+        <f t="shared" si="3"/>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="N11" s="228" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="132">
+        <f>ROUND(SQRT((H11-L11)^2+M11^2),2)</f>
+        <v>115.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="227">
+        <f t="shared" si="4"/>
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="B12" s="97">
+        <f t="shared" si="1"/>
+        <v>2.46</v>
+      </c>
+      <c r="C12" s="97">
         <f t="shared" si="5"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="M11" s="223">
+        <v>2.87</v>
+      </c>
+      <c r="D12" s="97">
         <f t="shared" si="2"/>
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="N11" s="223" t="s">
+        <v>6.09</v>
+      </c>
+      <c r="G12" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="224">
-        <f>ROUND(SQRT((H11-L11)^2+M11^2),2)</f>
-        <v>237.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97">
-        <f t="shared" si="3"/>
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="B12" s="97">
-        <f t="shared" si="0"/>
-        <v>2.46</v>
-      </c>
-      <c r="C12" s="97">
-        <f t="shared" si="4"/>
-        <v>2.87</v>
-      </c>
-      <c r="D12" s="97">
-        <f t="shared" si="1"/>
-        <v>6.09</v>
-      </c>
-      <c r="G12" s="223" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="223">
-        <f>O10</f>
-        <v>238.02</v>
-      </c>
-      <c r="I12" s="223" t="str">
+      <c r="H12" s="229">
+        <f>O11</f>
+        <v>115.39</v>
+      </c>
+      <c r="I12" s="229" t="str">
         <f>'Tabl 2-5'!H9</f>
         <v>Г-Е//</v>
       </c>
-      <c r="J12" s="223" t="str">
+      <c r="J12" s="229" t="str">
         <f>'Tabl 2-5'!N9</f>
         <v>2.712+2.46i</v>
       </c>
-      <c r="K12" s="223" t="str">
+      <c r="K12" s="229" t="str">
         <f>'Tabl 2-5'!L9</f>
         <v>2.87+6.09i</v>
       </c>
-      <c r="L12" s="223">
+      <c r="L12" s="229">
+        <f t="shared" si="6"/>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M12" s="229">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N12" s="229" t="s">
+        <v>316</v>
+      </c>
+      <c r="O12" s="229">
+        <f t="shared" ref="O12:O15" si="7">ROUND(SQRT((H12-L12)^2+M12^2),2)</f>
+        <v>115.19</v>
+      </c>
+      <c r="S12" s="133" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="227">
+        <f t="shared" si="4"/>
+        <v>34.994999999999997</v>
+      </c>
+      <c r="B13" s="227">
+        <f t="shared" si="1"/>
+        <v>12.054</v>
+      </c>
+      <c r="C13" s="97">
         <f t="shared" si="5"/>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="M12" s="223">
+        <v>1.43</v>
+      </c>
+      <c r="D13" s="97">
         <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="N12" s="223" t="s">
-        <v>316</v>
-      </c>
-      <c r="O12" s="224">
-        <f t="shared" ref="O11:O15" si="6">ROUND(SQRT((H12-L12)^2+M12^2),2)</f>
-        <v>237.92</v>
-      </c>
-      <c r="S12" s="225" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97">
-        <f t="shared" si="3"/>
-        <v>34.994999999999997</v>
-      </c>
-      <c r="B13" s="97">
-        <f t="shared" si="0"/>
-        <v>12.054</v>
-      </c>
-      <c r="C13" s="97">
-        <f t="shared" si="4"/>
-        <v>1.43</v>
-      </c>
-      <c r="D13" s="97">
-        <f t="shared" si="1"/>
         <v>4.82</v>
       </c>
-      <c r="G13" s="223" t="s">
+      <c r="G13" s="229" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="223">
-        <f>O9</f>
-        <v>238.33</v>
-      </c>
-      <c r="I13" s="223" t="str">
+      <c r="H13" s="231">
+        <f>S25</f>
+        <v>115.96124638877424</v>
+      </c>
+      <c r="I13" s="229" t="str">
         <f>'Tabl 2-5'!H8</f>
         <v>ВП2-Е/</v>
       </c>
-      <c r="J13" s="223" t="str">
+      <c r="J13" s="229" t="str">
         <f>'Tabl 2-5'!N8</f>
         <v>34.995+12.054i</v>
       </c>
-      <c r="K13" s="223" t="str">
+      <c r="K13" s="229" t="str">
         <f>'Tabl 2-5'!L8</f>
         <v>1.43+4.82i</v>
       </c>
-      <c r="L13" s="223">
+      <c r="L13" s="229">
+        <f t="shared" si="6"/>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="M13" s="229">
+        <f t="shared" si="3"/>
+        <v>1.306</v>
+      </c>
+      <c r="N13" s="229" t="s">
+        <v>320</v>
+      </c>
+      <c r="O13" s="229">
+        <f t="shared" si="7"/>
+        <v>115.04</v>
+      </c>
+      <c r="S13" s="133">
+        <f>1.05*110</f>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="227">
+        <f t="shared" si="4"/>
+        <v>34.947000000000003</v>
+      </c>
+      <c r="B14" s="227">
+        <f t="shared" si="1"/>
+        <v>11.837999999999999</v>
+      </c>
+      <c r="C14" s="97">
         <f t="shared" si="5"/>
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="M13" s="223">
+        <v>0.94</v>
+      </c>
+      <c r="D14" s="97">
         <f t="shared" si="2"/>
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="N13" s="223" t="s">
-        <v>320</v>
-      </c>
-      <c r="O13" s="223">
-        <f t="shared" si="6"/>
-        <v>237.88</v>
-      </c>
-      <c r="S13" s="225">
-        <f>1.05*'РОЗДІЛ 2'!B15</f>
-        <v>241.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97">
-        <f t="shared" si="3"/>
-        <v>34.947000000000003</v>
-      </c>
-      <c r="B14" s="97">
-        <f t="shared" si="0"/>
-        <v>11.837999999999999</v>
-      </c>
-      <c r="C14" s="97">
-        <f t="shared" si="4"/>
-        <v>0.94</v>
-      </c>
-      <c r="D14" s="97">
-        <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
-      <c r="G14" s="223" t="s">
+      <c r="G14" s="229" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="223">
-        <f>O13</f>
-        <v>237.88</v>
-      </c>
-      <c r="I14" s="223" t="str">
+      <c r="H14" s="231">
+        <f>S25</f>
+        <v>115.96124638877424</v>
+      </c>
+      <c r="I14" s="229" t="str">
         <f>'Tabl 2-5'!H7</f>
         <v>ВП2-Д</v>
       </c>
-      <c r="J14" s="223" t="str">
+      <c r="J14" s="229" t="str">
         <f>'Tabl 2-5'!N7</f>
         <v>34.947+11.838i</v>
       </c>
-      <c r="K14" s="223" t="str">
+      <c r="K14" s="229" t="str">
         <f>'Tabl 2-5'!L7</f>
         <v>0.94+3.16i</v>
       </c>
-      <c r="L14" s="223">
+      <c r="L14" s="229">
+        <f t="shared" si="6"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M14" s="229">
+        <f t="shared" si="3"/>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="N14" s="229" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="229">
+        <f t="shared" si="7"/>
+        <v>115.36</v>
+      </c>
+      <c r="S14" s="133"/>
+    </row>
+    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="227">
+        <f t="shared" si="4"/>
+        <v>7.9329999999999998</v>
+      </c>
+      <c r="B15" s="97">
+        <f t="shared" si="1"/>
+        <v>1.94</v>
+      </c>
+      <c r="C15" s="97">
         <f t="shared" si="5"/>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="M14" s="223">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D15" s="97">
         <f t="shared" si="2"/>
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="N14" s="223" t="s">
+        <v>2.35</v>
+      </c>
+      <c r="G15" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="224">
-        <f t="shared" si="6"/>
-        <v>237.59</v>
-      </c>
-      <c r="S14" s="225"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97">
-        <f t="shared" si="3"/>
-        <v>7.9329999999999998</v>
-      </c>
-      <c r="B15" s="97">
-        <f t="shared" si="0"/>
-        <v>1.94</v>
-      </c>
-      <c r="C15" s="97">
-        <f t="shared" si="4"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D15" s="97">
-        <f t="shared" si="1"/>
-        <v>2.35</v>
-      </c>
-      <c r="G15" s="223" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="223">
-        <f>O13</f>
-        <v>237.88</v>
-      </c>
-      <c r="I15" s="223" t="str">
+      <c r="H15" s="229">
+        <f>O14</f>
+        <v>115.36</v>
+      </c>
+      <c r="I15" s="229" t="str">
         <f>'Tabl 2-5'!H6</f>
         <v>Д-В//</v>
       </c>
-      <c r="J15" s="223" t="str">
+      <c r="J15" s="229" t="str">
         <f>'Tabl 2-5'!N6</f>
         <v>7.933+1.94i</v>
       </c>
-      <c r="K15" s="223" t="str">
+      <c r="K15" s="229" t="str">
         <f>'Tabl 2-5'!L6</f>
         <v>1.11+2.35i</v>
       </c>
-      <c r="L15" s="223">
+      <c r="L15" s="229">
+        <f t="shared" si="6"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M15" s="229">
+        <f t="shared" si="3"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="N15" s="229" t="s">
+        <v>313</v>
+      </c>
+      <c r="O15" s="229">
+        <f t="shared" si="7"/>
+        <v>115.24</v>
+      </c>
+      <c r="S15" s="133">
+        <f>ROUND(S13*N22/O9,3)</f>
+        <v>120.51900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="227">
+        <f t="shared" si="4"/>
+        <v>27.052</v>
+      </c>
+      <c r="B16" s="97">
+        <f t="shared" si="1"/>
+        <v>9.5879999999999992</v>
+      </c>
+      <c r="C16" s="97">
         <f t="shared" si="5"/>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="M15" s="223">
+        <v>1.42</v>
+      </c>
+      <c r="D16" s="97">
         <f t="shared" si="2"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N15" s="223" t="s">
-        <v>313</v>
-      </c>
-      <c r="O15" s="224">
-        <f t="shared" si="6"/>
-        <v>237.82</v>
-      </c>
-      <c r="S15" s="225">
-        <f>ROUND(S13*N22/O9,3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="223" t="s">
+        <v>4.78</v>
+      </c>
+      <c r="G16" s="229" t="s">
         <v>319</v>
       </c>
-      <c r="H16" s="223">
-        <f>O14</f>
-        <v>237.59</v>
-      </c>
-      <c r="I16" s="223" t="str">
+      <c r="H16" s="231">
+        <f>S25</f>
+        <v>115.96124638877424</v>
+      </c>
+      <c r="I16" s="229" t="str">
         <f>'Tabl 2-5'!H5</f>
         <v>ВП1-В/</v>
       </c>
-      <c r="J16" s="223" t="str">
+      <c r="J16" s="229" t="str">
         <f>'Tabl 2-5'!N5</f>
         <v>27.052+9.588i</v>
       </c>
-      <c r="K16" s="223" t="str">
+      <c r="K16" s="229" t="str">
         <f>'Tabl 2-5'!L5</f>
         <v>1.42+4.78i</v>
       </c>
-      <c r="L16" s="223">
-        <f t="shared" ref="L16" si="7">ROUND((A16*C16+B16*D16)/H16,3)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="223">
+      <c r="L16" s="229">
+        <f>ROUND((A16*C16+B16*D16)/H16,3)</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="M16" s="229">
         <f t="shared" ref="M16" si="8">ROUND((A16*D16-B16*C16)/H16,3)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="223" t="s">
+        <v>0.998</v>
+      </c>
+      <c r="N16" s="229" t="s">
         <v>314</v>
       </c>
-      <c r="O16" s="224">
+      <c r="O16" s="229">
         <f t="shared" ref="O16" si="9">ROUND(SQRT((H16-L16)^2+M16^2),2)</f>
-        <v>237.59</v>
-      </c>
-      <c r="S16" s="225"/>
+        <v>115.24</v>
+      </c>
+      <c r="S16" s="133"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G17" s="108" t="s">
@@ -22143,60 +22167,62 @@
         <v>322</v>
       </c>
       <c r="R17">
-        <v>38.5</v>
-      </c>
-      <c r="S17" s="225">
+        <v>121</v>
+      </c>
+      <c r="S17" s="133">
         <f>D19/100*R17</f>
-        <v>0.96250000000000002</v>
+        <v>3.0250000000000004</v>
       </c>
       <c r="T17" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="232" t="s">
         <v>324</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="232">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="232">
         <v>1.78</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="232"/>
+      <c r="F18" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="S18" s="225"/>
+      <c r="S18" s="133"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="232" t="s">
         <v>327</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="232">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="232">
         <v>2.5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="232"/>
+      <c r="F19" s="232" t="s">
         <v>328</v>
       </c>
       <c r="I19" t="s">
         <v>290</v>
       </c>
-      <c r="S19" s="225">
+      <c r="S19" s="133">
         <f>ROUND((S15-R17)/S17,2)</f>
-        <v>-40</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="146" t="s">
         <v>289</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -22211,8 +22237,8 @@
       <c r="K20" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
       <c r="N20" s="70" t="s">
         <v>230</v>
       </c>
@@ -22222,10 +22248,10 @@
       <c r="P20" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="225"/>
+      <c r="S20" s="133"/>
     </row>
     <row r="21" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="141"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="33" t="s">
         <v>9</v>
       </c>
@@ -22238,8 +22264,8 @@
       <c r="K21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
       <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
@@ -22249,209 +22275,364 @@
       <c r="P21" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="S21" s="225">
+      <c r="S21" s="133">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="4">
         <f>'Табл1-1  1-2'!F4</f>
         <v>6</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <f>D18/100*'РОЗДІЛ 2'!A29</f>
+        <v>4.0940000000000003</v>
+      </c>
       <c r="G22" s="83" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="64">
-        <f>O11</f>
-        <v>237.74</v>
-      </c>
-      <c r="I22" s="64"/>
+        <f>O9</f>
+        <v>232.21</v>
+      </c>
+      <c r="I22" s="226">
+        <v>6.6</v>
+      </c>
       <c r="J22" s="64">
-        <f>1.05*E22</f>
+        <f t="shared" ref="J22:J27" si="10">1.05*E22</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
+      <c r="K22" s="64">
+        <f>ROUND(H22*I22/J22,2)</f>
+        <v>243.27</v>
+      </c>
+      <c r="L22" s="64">
+        <f>ROUND((K22-'РОЗДІЛ 2'!A29)/'Table 2-6'!F22,1)</f>
+        <v>3.2</v>
+      </c>
+      <c r="M22" s="64">
+        <v>3</v>
+      </c>
+      <c r="N22" s="64">
+        <f>ROUND('РОЗДІЛ 2'!A29+'Table 2-6'!M22*'Table 2-6'!F22,1)</f>
+        <v>242.3</v>
+      </c>
+      <c r="O22" s="64">
+        <f>ROUND(H22/N22*I22,2)</f>
+        <v>6.33</v>
+      </c>
+      <c r="P22" s="64">
+        <f>ROUND(1*ABS((J22-O22)/J22*100),2)</f>
+        <v>0.48</v>
+      </c>
       <c r="Q22">
         <f>D18/2</f>
         <v>0.89</v>
       </c>
-      <c r="S22" s="225"/>
+      <c r="S22" s="133"/>
     </row>
     <row r="23" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="232">
+        <v>6</v>
+      </c>
+      <c r="D23" s="232">
+        <v>1.5</v>
+      </c>
       <c r="E23" s="4">
         <f>'Табл1-1  1-2'!F5</f>
         <v>10</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="132" t="s">
+      <c r="F23" s="4">
+        <f>D23/100*'РОЗДІЛ 2'!B15</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="G23" s="131" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="64">
         <f>O5</f>
         <v>240.67</v>
       </c>
-      <c r="I23" s="64"/>
+      <c r="I23" s="64">
+        <v>11</v>
+      </c>
       <c r="J23" s="64">
-        <f>1.05*E23</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
+      <c r="K23" s="64">
+        <f t="shared" ref="K23:K27" si="11">ROUND(H23*I23/J23,2)</f>
+        <v>252.13</v>
+      </c>
+      <c r="L23" s="64">
+        <f>ROUND((K23-'РОЗДІЛ 2'!B15)/'Table 2-6'!F23,1)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M23" s="64">
+        <v>6</v>
+      </c>
+      <c r="N23" s="64">
+        <f>'РОЗДІЛ 2'!B15+'Table 2-6'!M23*'Table 2-6'!F23</f>
+        <v>250.7</v>
+      </c>
+      <c r="O23" s="64">
+        <f t="shared" ref="O23:O27" si="12">ROUND(H23/N23*I23,2)</f>
+        <v>10.56</v>
+      </c>
+      <c r="P23" s="64">
+        <f t="shared" ref="P23:P27" si="13">ROUND(1*ABS((J23-O23)/J23*100),2)</f>
+        <v>0.56999999999999995</v>
+      </c>
       <c r="Q23">
         <f>D23/2</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="225">
+        <v>0.75</v>
+      </c>
+      <c r="S23" s="133">
         <f>R17+S21*S17</f>
-        <v>38.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="232">
+        <v>9</v>
+      </c>
+      <c r="D24" s="232">
+        <v>1.77</v>
+      </c>
       <c r="E24" s="4">
         <f>'Табл1-1  1-2'!F6</f>
         <v>10</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="132" t="s">
+      <c r="F24" s="4">
+        <f>D24/100*'РОЗДІЛ 2'!B16</f>
+        <v>2.0354999999999999</v>
+      </c>
+      <c r="G24" s="131" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="64">
         <f>O14</f>
-        <v>237.59</v>
-      </c>
-      <c r="I24" s="64"/>
+        <v>115.36</v>
+      </c>
+      <c r="I24" s="64">
+        <v>11</v>
+      </c>
       <c r="J24" s="64">
-        <f>1.05*E24</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
+      <c r="K24" s="64">
+        <f t="shared" si="11"/>
+        <v>120.85</v>
+      </c>
+      <c r="L24" s="64">
+        <f>ROUND((K24-'РОЗДІЛ 2'!B16)/'Table 2-6'!F24,1)</f>
+        <v>2.9</v>
+      </c>
+      <c r="M24" s="64">
+        <v>3</v>
+      </c>
+      <c r="N24" s="64">
+        <f>'РОЗДІЛ 2'!B16+'Table 2-6'!M24*'Table 2-6'!F24</f>
+        <v>121.1065</v>
+      </c>
+      <c r="O24" s="64">
+        <f t="shared" si="12"/>
+        <v>10.48</v>
+      </c>
+      <c r="P24" s="64">
+        <f t="shared" si="13"/>
+        <v>0.19</v>
+      </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q27" si="10">D24/2</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="225"/>
+        <f t="shared" ref="Q24:Q27" si="14">D24/2</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="S24" s="133"/>
     </row>
     <row r="25" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="232">
+        <v>6</v>
+      </c>
+      <c r="D25" s="232">
+        <f>D23</f>
+        <v>1.5</v>
+      </c>
       <c r="E25" s="4">
         <f>'Табл1-1  1-2'!F7</f>
         <v>10</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="132" t="s">
+      <c r="F25" s="4">
+        <f>D25/100*'РОЗДІЛ 2'!B17</f>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="G25" s="131" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="64">
         <f>O12</f>
-        <v>237.92</v>
-      </c>
-      <c r="I25" s="64"/>
+        <v>115.19</v>
+      </c>
+      <c r="I25" s="64">
+        <v>11</v>
+      </c>
       <c r="J25" s="64">
-        <f>1.05*E25</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
+      <c r="K25" s="64">
+        <f t="shared" si="11"/>
+        <v>120.68</v>
+      </c>
+      <c r="L25" s="64">
+        <f>ROUND((K25-'РОЗДІЛ 2'!B17)/'Table 2-6'!F25,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M25" s="64">
+        <v>3</v>
+      </c>
+      <c r="N25" s="64">
+        <f>'РОЗДІЛ 2'!B17+'Table 2-6'!M25*'Table 2-6'!F25</f>
+        <v>120.175</v>
+      </c>
+      <c r="O25" s="64">
+        <f t="shared" si="12"/>
+        <v>10.54</v>
+      </c>
+      <c r="P25" s="64">
+        <f t="shared" si="13"/>
+        <v>0.38</v>
+      </c>
       <c r="Q25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="226" t="e">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="S25" s="134">
         <f>O9*S23/N22</f>
-        <v>#DIV/0!</v>
+        <v>115.96124638877424</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="232">
+        <v>6</v>
+      </c>
+      <c r="D26" s="232">
+        <f>D23</f>
+        <v>1.5</v>
+      </c>
       <c r="E26" s="4">
         <f>'Табл1-1  1-2'!F8</f>
         <v>6</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="132" t="s">
+      <c r="F26" s="4">
+        <f>D26/100*'РОЗДІЛ 2'!B18</f>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="G26" s="131" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="64">
         <f>O15</f>
-        <v>237.82</v>
-      </c>
-      <c r="I26" s="64"/>
+        <v>115.24</v>
+      </c>
+      <c r="I26" s="64">
+        <v>6.3</v>
+      </c>
       <c r="J26" s="64">
-        <f>1.05*E26</f>
+        <f t="shared" si="10"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
+      <c r="K26" s="64">
+        <f>ROUND(H26*I26/J26,2)</f>
+        <v>115.24</v>
+      </c>
+      <c r="L26" s="64">
+        <f>ROUND((K26-'РОЗДІЛ 2'!B18)/'Table 2-6'!F26,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="64">
+        <v>0</v>
+      </c>
+      <c r="N26" s="64">
+        <f>'РОЗДІЛ 2'!B18+'Table 2-6'!M26*'Table 2-6'!F26</f>
+        <v>115</v>
+      </c>
+      <c r="O26" s="64">
+        <f t="shared" si="12"/>
+        <v>6.31</v>
+      </c>
+      <c r="P26" s="64">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
       <c r="Q26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="225"/>
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="S26" s="133"/>
     </row>
     <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="232">
+        <v>6</v>
+      </c>
+      <c r="D27" s="232">
+        <f t="shared" ref="D26:D27" si="15">D25</f>
+        <v>1.5</v>
+      </c>
       <c r="E27" s="4">
         <f>'Табл1-1  1-2'!F9</f>
         <v>6</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="132" t="s">
+      <c r="F27" s="4">
+        <f>D27/100*'РОЗДІЛ 2'!B19</f>
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="G27" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="64">
         <f>O16</f>
-        <v>237.59</v>
-      </c>
-      <c r="I27" s="64"/>
+        <v>115.24</v>
+      </c>
+      <c r="I27" s="64">
+        <v>6.3</v>
+      </c>
       <c r="J27" s="64">
-        <f>1.05*E27</f>
+        <f t="shared" si="10"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
+      <c r="K27" s="64">
+        <f t="shared" si="11"/>
+        <v>115.24</v>
+      </c>
+      <c r="L27" s="64">
+        <f>ROUND((K27-'РОЗДІЛ 2'!B19)/'Table 2-6'!F27,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="64">
+        <v>0</v>
+      </c>
+      <c r="N27" s="64">
+        <f>'РОЗДІЛ 2'!B19+'Table 2-6'!M27*'Table 2-6'!F27</f>
+        <v>115</v>
+      </c>
+      <c r="O27" s="64">
+        <f t="shared" si="12"/>
+        <v>6.31</v>
+      </c>
+      <c r="P27" s="64">
+        <f t="shared" si="13"/>
+        <v>0.16</v>
+      </c>
       <c r="Q27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="227" t="e">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="S27" s="135">
         <f>ROUND(1*ABS((S13-S25)/S13*100),2)</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
       <c r="T27" t="s">
         <v>329</v>
@@ -24659,26 +24840,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="136" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="135"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -24932,13 +25113,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="146" t="s">
         <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -24950,19 +25131,19 @@
       <c r="H2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="154" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="139" t="s">
+      <c r="L2" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="139" t="s">
+      <c r="M2" s="146" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="35">
@@ -24973,9 +25154,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="141"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="44" t="s">
         <v>97</v>
       </c>
@@ -24985,13 +25166,13 @@
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="145"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="155"/>
       <c r="K3" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
       <c r="N3" t="s">
         <v>88</v>
       </c>
@@ -25005,10 +25186,10 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="147" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
@@ -25055,8 +25236,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="151"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -25101,8 +25282,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="152"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -25147,8 +25328,8 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="150" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
@@ -25195,8 +25376,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -25241,10 +25422,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="146" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
@@ -25291,8 +25472,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -25337,8 +25518,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -25383,8 +25564,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="139" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="146" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
@@ -25431,8 +25612,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -25477,8 +25658,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -25523,8 +25704,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -25569,8 +25750,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -25615,8 +25796,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -25654,6 +25835,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -25662,13 +25850,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25691,20 +25872,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="153"/>
+      <c r="G3" s="156"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="153"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="40" t="s">
         <v>113</v>
       </c>
@@ -25856,25 +26037,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="163" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="163" t="s">
         <v>168</v>
       </c>
       <c r="J3" s="56" t="s">
@@ -25891,15 +26072,15 @@
       </c>
     </row>
     <row r="4" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="157"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="55" t="s">
         <v>147</v>
       </c>
@@ -25914,27 +26095,27 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="162"/>
-      <c r="D6" s="158"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="164"/>
       <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
@@ -25974,8 +26155,8 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="162"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="164"/>
       <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
@@ -26013,42 +26194,42 @@
       <c r="N7" s="54"/>
     </row>
     <row r="8" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="162"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159" t="s">
+      <c r="C8" s="165"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="161"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="159"/>
       <c r="M8" s="59">
         <f>M6+M7</f>
         <v>1.8504872727272728</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="162"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159" t="str">
+      <c r="C9" s="165"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="157" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="161"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="159"/>
     </row>
     <row r="10" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="162"/>
-      <c r="D10" s="158"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
@@ -26085,8 +26266,8 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="162"/>
-      <c r="D11" s="158"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
@@ -26123,26 +26304,26 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="162"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="161"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159"/>
       <c r="M12" s="59">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="162"/>
-      <c r="D13" s="155" t="s">
+      <c r="C13" s="165"/>
+      <c r="D13" s="160" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="55" t="str">
@@ -26183,8 +26364,8 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="55" t="str">
         <f>Fрозр!E8</f>
         <v>ВП-Д</v>
@@ -26223,45 +26404,45 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="159" t="s">
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="159"/>
       <c r="M15" s="59">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="161"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="159"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
@@ -26299,8 +26480,8 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
@@ -26338,41 +26519,41 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159" t="s">
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="59">
         <f>M17+M18</f>
         <v>1.8346254545454546</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159" t="s">
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="161"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="159"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
@@ -26409,8 +26590,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
@@ -26446,26 +26627,26 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159" t="s">
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="159"/>
       <c r="M23" s="59">
         <f>M21+M22</f>
         <v>2.3726354545454549</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="157"/>
-      <c r="D24" s="157" t="s">
+      <c r="C24" s="163"/>
+      <c r="D24" s="163" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="55" t="str">
@@ -26506,13 +26687,13 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
       </c>
-      <c r="F25" s="121" t="str">
+      <c r="F25" s="120" t="str">
         <f>нагрів!I19</f>
         <v>АС-150/34</v>
       </c>
@@ -26544,8 +26725,8 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
       <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
@@ -26584,46 +26765,46 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="159" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="161"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="159"/>
       <c r="M27" s="59">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="159" t="s">
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="161"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
       <c r="M28" s="59">
         <f>M24+M25</f>
         <v>1219.8721990909089</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="155"/>
+      <c r="D29" s="160"/>
       <c r="E29" s="55" t="s">
         <v>151</v>
       </c>
@@ -26661,8 +26842,8 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="157"/>
-      <c r="D30" s="164"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="161"/>
       <c r="E30" s="55" t="s">
         <v>152</v>
       </c>
@@ -26699,8 +26880,8 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="157"/>
-      <c r="D31" s="165"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="55" t="s">
         <v>153</v>
       </c>
@@ -26736,36 +26917,36 @@
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="154"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
       <c r="M32" s="59">
         <f>M29+M30</f>
         <v>9.2161288181818186</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="154" t="s">
+      <c r="C33" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
       <c r="M33" s="59">
         <f>M29+M31</f>
         <v>4.4329513636363638</v>
@@ -26779,17 +26960,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C16:C28"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E23:L23"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
@@ -26806,6 +26976,17 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
